--- a/序章.xlsx
+++ b/序章.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\renpy\projects\ReSeiSyun\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845ED08A-F183-4B32-8848-971386C243D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="dialogue" sheetId="1" r:id="rId4"/>
+    <sheet name="dialogue" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1633,16 +1642,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1650,36 +1666,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1869,24 +1892,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F264"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="42.57"/>
-    <col customWidth="1" min="4" max="4" width="35.0"/>
+    <col min="3" max="3" width="42.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1906,7 +1934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1920,13 +1948,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1940,13 +1968,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1960,13 +1988,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1980,13 +2008,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2000,13 +2028,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2020,13 +2048,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2037,13 +2065,13 @@
         <v>9</v>
       </c>
       <c r="E8" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -2054,13 +2082,13 @@
         <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -2071,13 +2099,13 @@
         <v>9</v>
       </c>
       <c r="E10" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2088,13 +2116,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2108,13 +2136,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -2125,13 +2153,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,13 +2170,13 @@
         <v>9</v>
       </c>
       <c r="E14" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2159,13 +2187,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -2179,13 +2207,13 @@
         <v>9</v>
       </c>
       <c r="E16" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -2199,13 +2227,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -2216,13 +2244,13 @@
         <v>9</v>
       </c>
       <c r="E18" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -2233,13 +2261,13 @@
         <v>9</v>
       </c>
       <c r="E19" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,13 +2278,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -2270,13 +2298,13 @@
         <v>9</v>
       </c>
       <c r="E21" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2287,13 +2315,13 @@
         <v>9</v>
       </c>
       <c r="E22" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -2307,13 +2335,13 @@
         <v>9</v>
       </c>
       <c r="E23" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -2327,13 +2355,13 @@
         <v>9</v>
       </c>
       <c r="E24" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -2347,13 +2375,13 @@
         <v>9</v>
       </c>
       <c r="E25" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -2367,13 +2395,13 @@
         <v>9</v>
       </c>
       <c r="E26" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -2387,13 +2415,13 @@
         <v>9</v>
       </c>
       <c r="E27" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -2407,13 +2435,13 @@
         <v>9</v>
       </c>
       <c r="E28" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -2427,13 +2455,13 @@
         <v>9</v>
       </c>
       <c r="E29" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -2447,13 +2475,13 @@
         <v>9</v>
       </c>
       <c r="E30" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,13 +2495,13 @@
         <v>9</v>
       </c>
       <c r="E31" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2484,13 +2512,13 @@
         <v>9</v>
       </c>
       <c r="E32" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -2504,13 +2532,13 @@
         <v>9</v>
       </c>
       <c r="E33" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -2521,13 +2549,13 @@
         <v>9</v>
       </c>
       <c r="E34" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -2538,13 +2566,13 @@
         <v>9</v>
       </c>
       <c r="E35" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -2555,13 +2583,13 @@
         <v>9</v>
       </c>
       <c r="E36" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -2572,13 +2600,13 @@
         <v>9</v>
       </c>
       <c r="E37" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -2592,13 +2620,13 @@
         <v>9</v>
       </c>
       <c r="E38" s="1">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -2609,13 +2637,13 @@
         <v>9</v>
       </c>
       <c r="E39" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -2629,13 +2657,13 @@
         <v>9</v>
       </c>
       <c r="E40" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -2646,13 +2674,13 @@
         <v>9</v>
       </c>
       <c r="E41" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -2666,13 +2694,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
@@ -2686,13 +2714,13 @@
         <v>9</v>
       </c>
       <c r="E43" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
@@ -2706,13 +2734,13 @@
         <v>9</v>
       </c>
       <c r="E44" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>95</v>
       </c>
@@ -2726,13 +2754,13 @@
         <v>9</v>
       </c>
       <c r="E45" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -2743,13 +2771,13 @@
         <v>9</v>
       </c>
       <c r="E46" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
@@ -2760,13 +2788,13 @@
         <v>9</v>
       </c>
       <c r="E47" s="1">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>103</v>
       </c>
@@ -2780,13 +2808,13 @@
         <v>9</v>
       </c>
       <c r="E48" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>105</v>
       </c>
@@ -2800,13 +2828,13 @@
         <v>9</v>
       </c>
       <c r="E49" s="1">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>107</v>
       </c>
@@ -2820,13 +2848,13 @@
         <v>9</v>
       </c>
       <c r="E50" s="1">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>108</v>
       </c>
@@ -2840,13 +2868,13 @@
         <v>9</v>
       </c>
       <c r="E51" s="1">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>110</v>
       </c>
@@ -2860,13 +2888,13 @@
         <v>9</v>
       </c>
       <c r="E52" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
@@ -2877,13 +2905,13 @@
         <v>9</v>
       </c>
       <c r="E53" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
@@ -2894,13 +2922,13 @@
         <v>9</v>
       </c>
       <c r="E54" s="1">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
@@ -2914,13 +2942,13 @@
         <v>9</v>
       </c>
       <c r="E55" s="1">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
@@ -2934,13 +2962,13 @@
         <v>9</v>
       </c>
       <c r="E56" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
@@ -2951,13 +2979,13 @@
         <v>9</v>
       </c>
       <c r="E57" s="1">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>122</v>
       </c>
@@ -2968,13 +2996,13 @@
         <v>9</v>
       </c>
       <c r="E58" s="1">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>124</v>
       </c>
@@ -2988,13 +3016,13 @@
         <v>9</v>
       </c>
       <c r="E59" s="1">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>126</v>
       </c>
@@ -3008,13 +3036,13 @@
         <v>9</v>
       </c>
       <c r="E60" s="1">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>128</v>
       </c>
@@ -3025,13 +3053,13 @@
         <v>9</v>
       </c>
       <c r="E61" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>130</v>
       </c>
@@ -3045,13 +3073,13 @@
         <v>9</v>
       </c>
       <c r="E62" s="1">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>132</v>
       </c>
@@ -3065,13 +3093,13 @@
         <v>9</v>
       </c>
       <c r="E63" s="1">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>134</v>
       </c>
@@ -3082,13 +3110,13 @@
         <v>9</v>
       </c>
       <c r="E64" s="1">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>136</v>
       </c>
@@ -3099,13 +3127,13 @@
         <v>9</v>
       </c>
       <c r="E65" s="1">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
@@ -3116,13 +3144,13 @@
         <v>9</v>
       </c>
       <c r="E66" s="1">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>140</v>
       </c>
@@ -3133,13 +3161,13 @@
         <v>9</v>
       </c>
       <c r="E67" s="1">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>142</v>
       </c>
@@ -3153,13 +3181,13 @@
         <v>9</v>
       </c>
       <c r="E68" s="1">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>144</v>
       </c>
@@ -3173,13 +3201,13 @@
         <v>9</v>
       </c>
       <c r="E69" s="1">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>146</v>
       </c>
@@ -3193,13 +3221,13 @@
         <v>9</v>
       </c>
       <c r="E70" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>148</v>
       </c>
@@ -3213,13 +3241,13 @@
         <v>9</v>
       </c>
       <c r="E71" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>150</v>
       </c>
@@ -3230,13 +3258,13 @@
         <v>9</v>
       </c>
       <c r="E72" s="1">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>152</v>
       </c>
@@ -3247,13 +3275,13 @@
         <v>9</v>
       </c>
       <c r="E73" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>154</v>
       </c>
@@ -3264,13 +3292,13 @@
         <v>9</v>
       </c>
       <c r="E74" s="1">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
@@ -3281,13 +3309,13 @@
         <v>9</v>
       </c>
       <c r="E75" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>158</v>
       </c>
@@ -3298,13 +3326,13 @@
         <v>9</v>
       </c>
       <c r="E76" s="1">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>160</v>
       </c>
@@ -3315,13 +3343,13 @@
         <v>9</v>
       </c>
       <c r="E77" s="1">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>162</v>
       </c>
@@ -3332,13 +3360,13 @@
         <v>9</v>
       </c>
       <c r="E78" s="1">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>164</v>
       </c>
@@ -3349,13 +3377,13 @@
         <v>9</v>
       </c>
       <c r="E79" s="1">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>166</v>
       </c>
@@ -3366,13 +3394,13 @@
         <v>9</v>
       </c>
       <c r="E80" s="1">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>168</v>
       </c>
@@ -3383,13 +3411,13 @@
         <v>9</v>
       </c>
       <c r="E81" s="1">
-        <v>244.0</v>
+        <v>244</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>170</v>
       </c>
@@ -3400,13 +3428,13 @@
         <v>9</v>
       </c>
       <c r="E82" s="1">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>172</v>
       </c>
@@ -3417,13 +3445,13 @@
         <v>9</v>
       </c>
       <c r="E83" s="1">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>174</v>
       </c>
@@ -3437,13 +3465,13 @@
         <v>9</v>
       </c>
       <c r="E84" s="1">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>178</v>
       </c>
@@ -3454,13 +3482,13 @@
         <v>9</v>
       </c>
       <c r="E85" s="1">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>180</v>
       </c>
@@ -3474,13 +3502,13 @@
         <v>9</v>
       </c>
       <c r="E86" s="1">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>182</v>
       </c>
@@ -3494,13 +3522,13 @@
         <v>9</v>
       </c>
       <c r="E87" s="1">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>184</v>
       </c>
@@ -3511,13 +3539,13 @@
         <v>9</v>
       </c>
       <c r="E88" s="1">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>186</v>
       </c>
@@ -3531,13 +3559,13 @@
         <v>9</v>
       </c>
       <c r="E89" s="1">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>188</v>
       </c>
@@ -3551,13 +3579,13 @@
         <v>9</v>
       </c>
       <c r="E90" s="1">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>190</v>
       </c>
@@ -3571,13 +3599,13 @@
         <v>9</v>
       </c>
       <c r="E91" s="1">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>192</v>
       </c>
@@ -3591,13 +3619,13 @@
         <v>9</v>
       </c>
       <c r="E92" s="1">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>194</v>
       </c>
@@ -3611,13 +3639,13 @@
         <v>9</v>
       </c>
       <c r="E93" s="1">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>196</v>
       </c>
@@ -3628,13 +3656,13 @@
         <v>9</v>
       </c>
       <c r="E94" s="1">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>198</v>
       </c>
@@ -3648,13 +3676,13 @@
         <v>9</v>
       </c>
       <c r="E95" s="1">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>200</v>
       </c>
@@ -3668,13 +3696,13 @@
         <v>9</v>
       </c>
       <c r="E96" s="1">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>202</v>
       </c>
@@ -3685,13 +3713,13 @@
         <v>9</v>
       </c>
       <c r="E97" s="1">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>204</v>
       </c>
@@ -3705,13 +3733,13 @@
         <v>9</v>
       </c>
       <c r="E98" s="1">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>206</v>
       </c>
@@ -3725,13 +3753,13 @@
         <v>9</v>
       </c>
       <c r="E99" s="1">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>208</v>
       </c>
@@ -3742,13 +3770,13 @@
         <v>9</v>
       </c>
       <c r="E100" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>210</v>
       </c>
@@ -3759,13 +3787,13 @@
         <v>9</v>
       </c>
       <c r="E101" s="1">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>212</v>
       </c>
@@ -3779,13 +3807,13 @@
         <v>9</v>
       </c>
       <c r="E102" s="1">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>214</v>
       </c>
@@ -3799,13 +3827,13 @@
         <v>9</v>
       </c>
       <c r="E103" s="1">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>216</v>
       </c>
@@ -3819,13 +3847,13 @@
         <v>9</v>
       </c>
       <c r="E104" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>218</v>
       </c>
@@ -3839,13 +3867,13 @@
         <v>9</v>
       </c>
       <c r="E105" s="1">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>220</v>
       </c>
@@ -3856,13 +3884,13 @@
         <v>9</v>
       </c>
       <c r="E106" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>222</v>
       </c>
@@ -3876,13 +3904,13 @@
         <v>9</v>
       </c>
       <c r="E107" s="1">
-        <v>314.0</v>
+        <v>314</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>224</v>
       </c>
@@ -3893,13 +3921,13 @@
         <v>9</v>
       </c>
       <c r="E108" s="1">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>226</v>
       </c>
@@ -3910,13 +3938,13 @@
         <v>9</v>
       </c>
       <c r="E109" s="1">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>228</v>
       </c>
@@ -3927,13 +3955,13 @@
         <v>9</v>
       </c>
       <c r="E110" s="1">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>230</v>
       </c>
@@ -3947,13 +3975,13 @@
         <v>9</v>
       </c>
       <c r="E111" s="1">
-        <v>324.0</v>
+        <v>324</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>232</v>
       </c>
@@ -3967,13 +3995,13 @@
         <v>9</v>
       </c>
       <c r="E112" s="1">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>234</v>
       </c>
@@ -3984,13 +4012,13 @@
         <v>9</v>
       </c>
       <c r="E113" s="1">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>236</v>
       </c>
@@ -4004,13 +4032,13 @@
         <v>9</v>
       </c>
       <c r="E114" s="1">
-        <v>331.0</v>
+        <v>331</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>238</v>
       </c>
@@ -4024,13 +4052,13 @@
         <v>9</v>
       </c>
       <c r="E115" s="1">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>240</v>
       </c>
@@ -4044,13 +4072,13 @@
         <v>9</v>
       </c>
       <c r="E116" s="1">
-        <v>337.0</v>
+        <v>337</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>242</v>
       </c>
@@ -4064,13 +4092,13 @@
         <v>9</v>
       </c>
       <c r="E117" s="1">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>244</v>
       </c>
@@ -4081,13 +4109,13 @@
         <v>9</v>
       </c>
       <c r="E118" s="1">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>246</v>
       </c>
@@ -4101,13 +4129,13 @@
         <v>9</v>
       </c>
       <c r="E119" s="1">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>248</v>
       </c>
@@ -4121,13 +4149,13 @@
         <v>9</v>
       </c>
       <c r="E120" s="1">
-        <v>351.0</v>
+        <v>351</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>250</v>
       </c>
@@ -4141,13 +4169,13 @@
         <v>9</v>
       </c>
       <c r="E121" s="1">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>252</v>
       </c>
@@ -4161,13 +4189,13 @@
         <v>9</v>
       </c>
       <c r="E122" s="1">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>254</v>
       </c>
@@ -4178,13 +4206,13 @@
         <v>9</v>
       </c>
       <c r="E123" s="1">
-        <v>357.0</v>
+        <v>357</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>256</v>
       </c>
@@ -4198,13 +4226,13 @@
         <v>9</v>
       </c>
       <c r="E124" s="1">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>258</v>
       </c>
@@ -4215,13 +4243,13 @@
         <v>9</v>
       </c>
       <c r="E125" s="1">
-        <v>361.0</v>
+        <v>361</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>260</v>
       </c>
@@ -4232,13 +4260,13 @@
         <v>9</v>
       </c>
       <c r="E126" s="1">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>262</v>
       </c>
@@ -4252,13 +4280,13 @@
         <v>9</v>
       </c>
       <c r="E127" s="1">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>264</v>
       </c>
@@ -4269,13 +4297,13 @@
         <v>9</v>
       </c>
       <c r="E128" s="1">
-        <v>373.0</v>
+        <v>373</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>266</v>
       </c>
@@ -4289,13 +4317,13 @@
         <v>9</v>
       </c>
       <c r="E129" s="1">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>270</v>
       </c>
@@ -4309,13 +4337,13 @@
         <v>9</v>
       </c>
       <c r="E130" s="1">
-        <v>378.0</v>
+        <v>378</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>272</v>
       </c>
@@ -4326,13 +4354,13 @@
         <v>9</v>
       </c>
       <c r="E131" s="1">
-        <v>379.0</v>
+        <v>379</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>274</v>
       </c>
@@ -4343,13 +4371,13 @@
         <v>9</v>
       </c>
       <c r="E132" s="1">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>276</v>
       </c>
@@ -4363,13 +4391,13 @@
         <v>9</v>
       </c>
       <c r="E133" s="1">
-        <v>383.0</v>
+        <v>383</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>278</v>
       </c>
@@ -4383,13 +4411,13 @@
         <v>9</v>
       </c>
       <c r="E134" s="1">
-        <v>386.0</v>
+        <v>386</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>280</v>
       </c>
@@ -4403,13 +4431,13 @@
         <v>9</v>
       </c>
       <c r="E135" s="1">
-        <v>389.0</v>
+        <v>389</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>282</v>
       </c>
@@ -4420,13 +4448,13 @@
         <v>9</v>
       </c>
       <c r="E136" s="1">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>284</v>
       </c>
@@ -4437,13 +4465,13 @@
         <v>9</v>
       </c>
       <c r="E137" s="1">
-        <v>391.0</v>
+        <v>391</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>286</v>
       </c>
@@ -4457,13 +4485,13 @@
         <v>9</v>
       </c>
       <c r="E138" s="1">
-        <v>394.0</v>
+        <v>394</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>288</v>
       </c>
@@ -4477,13 +4505,13 @@
         <v>9</v>
       </c>
       <c r="E139" s="1">
-        <v>397.0</v>
+        <v>397</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>290</v>
       </c>
@@ -4497,13 +4525,13 @@
         <v>9</v>
       </c>
       <c r="E140" s="1">
-        <v>399.0</v>
+        <v>399</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>292</v>
       </c>
@@ -4517,13 +4545,13 @@
         <v>9</v>
       </c>
       <c r="E141" s="1">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>294</v>
       </c>
@@ -4534,13 +4562,13 @@
         <v>9</v>
       </c>
       <c r="E142" s="1">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>296</v>
       </c>
@@ -4554,13 +4582,13 @@
         <v>9</v>
       </c>
       <c r="E143" s="1">
-        <v>412.0</v>
+        <v>412</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>300</v>
       </c>
@@ -4574,13 +4602,13 @@
         <v>9</v>
       </c>
       <c r="E144" s="1">
-        <v>415.0</v>
+        <v>415</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>302</v>
       </c>
@@ -4594,13 +4622,13 @@
         <v>9</v>
       </c>
       <c r="E145" s="1">
-        <v>419.0</v>
+        <v>419</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>304</v>
       </c>
@@ -4611,13 +4639,13 @@
         <v>9</v>
       </c>
       <c r="E146" s="1">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>306</v>
       </c>
@@ -4631,13 +4659,13 @@
         <v>9</v>
       </c>
       <c r="E147" s="1">
-        <v>423.0</v>
+        <v>423</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>308</v>
       </c>
@@ -4651,13 +4679,13 @@
         <v>9</v>
       </c>
       <c r="E148" s="1">
-        <v>426.0</v>
+        <v>426</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>310</v>
       </c>
@@ -4668,13 +4696,13 @@
         <v>9</v>
       </c>
       <c r="E149" s="1">
-        <v>427.0</v>
+        <v>427</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>312</v>
       </c>
@@ -4688,13 +4716,13 @@
         <v>9</v>
       </c>
       <c r="E150" s="1">
-        <v>434.0</v>
+        <v>434</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>316</v>
       </c>
@@ -4708,13 +4736,13 @@
         <v>9</v>
       </c>
       <c r="E151" s="1">
-        <v>437.0</v>
+        <v>437</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>318</v>
       </c>
@@ -4725,13 +4753,13 @@
         <v>9</v>
       </c>
       <c r="E152" s="1">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>320</v>
       </c>
@@ -4745,13 +4773,13 @@
         <v>9</v>
       </c>
       <c r="E153" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>322</v>
       </c>
@@ -4765,13 +4793,13 @@
         <v>9</v>
       </c>
       <c r="E154" s="1">
-        <v>443.0</v>
+        <v>443</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>324</v>
       </c>
@@ -4785,13 +4813,13 @@
         <v>9</v>
       </c>
       <c r="E155" s="1">
-        <v>446.0</v>
+        <v>446</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>326</v>
       </c>
@@ -4805,13 +4833,13 @@
         <v>9</v>
       </c>
       <c r="E156" s="1">
-        <v>449.0</v>
+        <v>449</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>327</v>
       </c>
@@ -4825,13 +4853,13 @@
         <v>9</v>
       </c>
       <c r="E157" s="1">
-        <v>452.0</v>
+        <v>452</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>329</v>
       </c>
@@ -4845,13 +4873,13 @@
         <v>9</v>
       </c>
       <c r="E158" s="1">
-        <v>455.0</v>
+        <v>455</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>331</v>
       </c>
@@ -4865,13 +4893,13 @@
         <v>9</v>
       </c>
       <c r="E159" s="1">
-        <v>458.0</v>
+        <v>458</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>333</v>
       </c>
@@ -4885,13 +4913,13 @@
         <v>9</v>
       </c>
       <c r="E160" s="1">
-        <v>461.0</v>
+        <v>461</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>335</v>
       </c>
@@ -4905,13 +4933,13 @@
         <v>9</v>
       </c>
       <c r="E161" s="1">
-        <v>464.0</v>
+        <v>464</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>337</v>
       </c>
@@ -4925,13 +4953,13 @@
         <v>9</v>
       </c>
       <c r="E162" s="1">
-        <v>467.0</v>
+        <v>467</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>339</v>
       </c>
@@ -4945,13 +4973,13 @@
         <v>9</v>
       </c>
       <c r="E163" s="1">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>341</v>
       </c>
@@ -4965,13 +4993,13 @@
         <v>9</v>
       </c>
       <c r="E164" s="1">
-        <v>473.0</v>
+        <v>473</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>343</v>
       </c>
@@ -4985,13 +5013,13 @@
         <v>9</v>
       </c>
       <c r="E165" s="1">
-        <v>476.0</v>
+        <v>476</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>345</v>
       </c>
@@ -5005,13 +5033,13 @@
         <v>9</v>
       </c>
       <c r="E166" s="1">
-        <v>479.0</v>
+        <v>479</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>347</v>
       </c>
@@ -5025,13 +5053,13 @@
         <v>9</v>
       </c>
       <c r="E167" s="1">
-        <v>482.0</v>
+        <v>482</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>348</v>
       </c>
@@ -5042,13 +5070,13 @@
         <v>9</v>
       </c>
       <c r="E168" s="1">
-        <v>483.0</v>
+        <v>483</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>350</v>
       </c>
@@ -5062,13 +5090,13 @@
         <v>9</v>
       </c>
       <c r="E169" s="1">
-        <v>484.0</v>
+        <v>484</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>352</v>
       </c>
@@ -5082,13 +5110,13 @@
         <v>9</v>
       </c>
       <c r="E170" s="1">
-        <v>487.0</v>
+        <v>487</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>354</v>
       </c>
@@ -5099,13 +5127,13 @@
         <v>9</v>
       </c>
       <c r="E171" s="1">
-        <v>488.0</v>
+        <v>488</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>356</v>
       </c>
@@ -5119,13 +5147,13 @@
         <v>9</v>
       </c>
       <c r="E172" s="1">
-        <v>492.0</v>
+        <v>492</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>358</v>
       </c>
@@ -5139,13 +5167,13 @@
         <v>9</v>
       </c>
       <c r="E173" s="1">
-        <v>495.0</v>
+        <v>495</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>360</v>
       </c>
@@ -5159,13 +5187,13 @@
         <v>9</v>
       </c>
       <c r="E174" s="1">
-        <v>498.0</v>
+        <v>498</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>362</v>
       </c>
@@ -5179,13 +5207,13 @@
         <v>9</v>
       </c>
       <c r="E175" s="1">
-        <v>503.0</v>
+        <v>503</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>364</v>
       </c>
@@ -5199,13 +5227,13 @@
         <v>9</v>
       </c>
       <c r="E176" s="1">
-        <v>506.0</v>
+        <v>506</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>366</v>
       </c>
@@ -5216,13 +5244,13 @@
         <v>9</v>
       </c>
       <c r="E177" s="1">
-        <v>507.0</v>
+        <v>507</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>368</v>
       </c>
@@ -5233,13 +5261,13 @@
         <v>9</v>
       </c>
       <c r="E178" s="1">
-        <v>508.0</v>
+        <v>508</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>370</v>
       </c>
@@ -5253,13 +5281,13 @@
         <v>9</v>
       </c>
       <c r="E179" s="1">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>372</v>
       </c>
@@ -5273,13 +5301,13 @@
         <v>9</v>
       </c>
       <c r="E180" s="1">
-        <v>514.0</v>
+        <v>514</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>374</v>
       </c>
@@ -5290,13 +5318,13 @@
         <v>9</v>
       </c>
       <c r="E181" s="1">
-        <v>515.0</v>
+        <v>515</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>376</v>
       </c>
@@ -5310,13 +5338,13 @@
         <v>9</v>
       </c>
       <c r="E182" s="1">
-        <v>518.0</v>
+        <v>518</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>378</v>
       </c>
@@ -5330,13 +5358,13 @@
         <v>9</v>
       </c>
       <c r="E183" s="1">
-        <v>523.0</v>
+        <v>523</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>380</v>
       </c>
@@ -5350,13 +5378,13 @@
         <v>9</v>
       </c>
       <c r="E184" s="1">
-        <v>526.0</v>
+        <v>526</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>382</v>
       </c>
@@ -5367,13 +5395,13 @@
         <v>9</v>
       </c>
       <c r="E185" s="1">
-        <v>527.0</v>
+        <v>527</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>384</v>
       </c>
@@ -5384,13 +5412,13 @@
         <v>9</v>
       </c>
       <c r="E186" s="1">
-        <v>528.0</v>
+        <v>528</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>386</v>
       </c>
@@ -5401,13 +5429,13 @@
         <v>9</v>
       </c>
       <c r="E187" s="1">
-        <v>529.0</v>
+        <v>529</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>388</v>
       </c>
@@ -5421,13 +5449,13 @@
         <v>9</v>
       </c>
       <c r="E188" s="1">
-        <v>532.0</v>
+        <v>532</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>390</v>
       </c>
@@ -5441,13 +5469,13 @@
         <v>9</v>
       </c>
       <c r="E189" s="1">
-        <v>537.0</v>
+        <v>537</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>392</v>
       </c>
@@ -5461,13 +5489,13 @@
         <v>9</v>
       </c>
       <c r="E190" s="1">
-        <v>542.0</v>
+        <v>542</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>394</v>
       </c>
@@ -5478,13 +5506,13 @@
         <v>9</v>
       </c>
       <c r="E191" s="1">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>396</v>
       </c>
@@ -5498,13 +5526,13 @@
         <v>9</v>
       </c>
       <c r="E192" s="1">
-        <v>556.0</v>
+        <v>556</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>398</v>
       </c>
@@ -5518,13 +5546,13 @@
         <v>9</v>
       </c>
       <c r="E193" s="1">
-        <v>559.0</v>
+        <v>559</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>400</v>
       </c>
@@ -5535,13 +5563,13 @@
         <v>9</v>
       </c>
       <c r="E194" s="1">
-        <v>562.0</v>
+        <v>562</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>402</v>
       </c>
@@ -5552,13 +5580,13 @@
         <v>9</v>
       </c>
       <c r="E195" s="1">
-        <v>563.0</v>
+        <v>563</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>404</v>
       </c>
@@ -5572,13 +5600,13 @@
         <v>9</v>
       </c>
       <c r="E196" s="1">
-        <v>568.0</v>
+        <v>568</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>406</v>
       </c>
@@ -5592,13 +5620,13 @@
         <v>9</v>
       </c>
       <c r="E197" s="1">
-        <v>573.0</v>
+        <v>573</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>408</v>
       </c>
@@ -5612,13 +5640,13 @@
         <v>9</v>
       </c>
       <c r="E198" s="1">
-        <v>576.0</v>
+        <v>576</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>410</v>
       </c>
@@ -5629,13 +5657,13 @@
         <v>9</v>
       </c>
       <c r="E199" s="1">
-        <v>579.0</v>
+        <v>579</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>412</v>
       </c>
@@ -5649,13 +5677,13 @@
         <v>9</v>
       </c>
       <c r="E200" s="1">
-        <v>582.0</v>
+        <v>582</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>414</v>
       </c>
@@ -5669,13 +5697,13 @@
         <v>9</v>
       </c>
       <c r="E201" s="1">
-        <v>583.0</v>
+        <v>583</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>416</v>
       </c>
@@ -5689,13 +5717,13 @@
         <v>9</v>
       </c>
       <c r="E202" s="1">
-        <v>586.0</v>
+        <v>586</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>418</v>
       </c>
@@ -5706,13 +5734,13 @@
         <v>9</v>
       </c>
       <c r="E203" s="1">
-        <v>589.0</v>
+        <v>589</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>420</v>
       </c>
@@ -5726,13 +5754,13 @@
         <v>9</v>
       </c>
       <c r="E204" s="1">
-        <v>592.0</v>
+        <v>592</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>422</v>
       </c>
@@ -5746,13 +5774,13 @@
         <v>9</v>
       </c>
       <c r="E205" s="1">
-        <v>593.0</v>
+        <v>593</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>424</v>
       </c>
@@ -5766,13 +5794,13 @@
         <v>9</v>
       </c>
       <c r="E206" s="1">
-        <v>596.0</v>
+        <v>596</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>426</v>
       </c>
@@ -5786,13 +5814,13 @@
         <v>9</v>
       </c>
       <c r="E207" s="1">
-        <v>614.0</v>
+        <v>614</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>428</v>
       </c>
@@ -5806,13 +5834,13 @@
         <v>9</v>
       </c>
       <c r="E208" s="1">
-        <v>616.0</v>
+        <v>616</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>430</v>
       </c>
@@ -5826,13 +5854,13 @@
         <v>9</v>
       </c>
       <c r="E209" s="1">
-        <v>617.0</v>
+        <v>617</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>432</v>
       </c>
@@ -5846,13 +5874,13 @@
         <v>9</v>
       </c>
       <c r="E210" s="1">
-        <v>626.0</v>
+        <v>626</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>434</v>
       </c>
@@ -5866,13 +5894,13 @@
         <v>9</v>
       </c>
       <c r="E211" s="1">
-        <v>628.0</v>
+        <v>628</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>436</v>
       </c>
@@ -5886,13 +5914,13 @@
         <v>9</v>
       </c>
       <c r="E212" s="1">
-        <v>629.0</v>
+        <v>629</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>437</v>
       </c>
@@ -5906,13 +5934,13 @@
         <v>9</v>
       </c>
       <c r="E213" s="1">
-        <v>640.0</v>
+        <v>640</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>439</v>
       </c>
@@ -5926,13 +5954,13 @@
         <v>9</v>
       </c>
       <c r="E214" s="1">
-        <v>643.0</v>
+        <v>643</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>441</v>
       </c>
@@ -5946,13 +5974,13 @@
         <v>9</v>
       </c>
       <c r="E215" s="1">
-        <v>730.0</v>
+        <v>730</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>443</v>
       </c>
@@ -5966,13 +5994,13 @@
         <v>9</v>
       </c>
       <c r="E216" s="1">
-        <v>735.0</v>
+        <v>735</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>445</v>
       </c>
@@ -5986,13 +6014,13 @@
         <v>9</v>
       </c>
       <c r="E217" s="1">
-        <v>745.0</v>
+        <v>745</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>447</v>
       </c>
@@ -6006,13 +6034,13 @@
         <v>9</v>
       </c>
       <c r="E218" s="1">
-        <v>748.0</v>
+        <v>748</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>449</v>
       </c>
@@ -6023,13 +6051,13 @@
         <v>9</v>
       </c>
       <c r="E219" s="1">
-        <v>750.0</v>
+        <v>750</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>451</v>
       </c>
@@ -6043,13 +6071,13 @@
         <v>9</v>
       </c>
       <c r="E220" s="1">
-        <v>760.0</v>
+        <v>760</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>453</v>
       </c>
@@ -6063,13 +6091,13 @@
         <v>9</v>
       </c>
       <c r="E221" s="1">
-        <v>763.0</v>
+        <v>763</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>455</v>
       </c>
@@ -6080,13 +6108,13 @@
         <v>9</v>
       </c>
       <c r="E222" s="1">
-        <v>765.0</v>
+        <v>765</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>457</v>
       </c>
@@ -6097,13 +6125,13 @@
         <v>9</v>
       </c>
       <c r="E223" s="1">
-        <v>767.0</v>
+        <v>767</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>459</v>
       </c>
@@ -6117,13 +6145,13 @@
         <v>9</v>
       </c>
       <c r="E224" s="1">
-        <v>773.0</v>
+        <v>773</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>461</v>
       </c>
@@ -6137,13 +6165,13 @@
         <v>9</v>
       </c>
       <c r="E225" s="1">
-        <v>776.0</v>
+        <v>776</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>463</v>
       </c>
@@ -6157,13 +6185,13 @@
         <v>9</v>
       </c>
       <c r="E226" s="1">
-        <v>779.0</v>
+        <v>779</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>465</v>
       </c>
@@ -6174,13 +6202,13 @@
         <v>9</v>
       </c>
       <c r="E227" s="1">
-        <v>780.0</v>
+        <v>780</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>467</v>
       </c>
@@ -6194,13 +6222,13 @@
         <v>9</v>
       </c>
       <c r="E228" s="1">
-        <v>788.0</v>
+        <v>788</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>469</v>
       </c>
@@ -6214,13 +6242,13 @@
         <v>9</v>
       </c>
       <c r="E229" s="1">
-        <v>791.0</v>
+        <v>791</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>471</v>
       </c>
@@ -6234,13 +6262,13 @@
         <v>9</v>
       </c>
       <c r="E230" s="1">
-        <v>794.0</v>
+        <v>794</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>473</v>
       </c>
@@ -6254,13 +6282,13 @@
         <v>9</v>
       </c>
       <c r="E231" s="1">
-        <v>797.0</v>
+        <v>797</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>475</v>
       </c>
@@ -6274,13 +6302,13 @@
         <v>9</v>
       </c>
       <c r="E232" s="1">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>477</v>
       </c>
@@ -6294,13 +6322,13 @@
         <v>9</v>
       </c>
       <c r="E233" s="1">
-        <v>803.0</v>
+        <v>803</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>479</v>
       </c>
@@ -6314,13 +6342,13 @@
         <v>9</v>
       </c>
       <c r="E234" s="1">
-        <v>806.0</v>
+        <v>806</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>481</v>
       </c>
@@ -6334,13 +6362,13 @@
         <v>9</v>
       </c>
       <c r="E235" s="1">
-        <v>809.0</v>
+        <v>809</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>482</v>
       </c>
@@ -6354,13 +6382,13 @@
         <v>9</v>
       </c>
       <c r="E236" s="1">
-        <v>810.0</v>
+        <v>810</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>484</v>
       </c>
@@ -6371,13 +6399,13 @@
         <v>9</v>
       </c>
       <c r="E237" s="1">
-        <v>811.0</v>
+        <v>811</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>486</v>
       </c>
@@ -6391,13 +6419,13 @@
         <v>9</v>
       </c>
       <c r="E238" s="1">
-        <v>814.0</v>
+        <v>814</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>488</v>
       </c>
@@ -6411,13 +6439,13 @@
         <v>9</v>
       </c>
       <c r="E239" s="1">
-        <v>817.0</v>
+        <v>817</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>490</v>
       </c>
@@ -6428,13 +6456,13 @@
         <v>9</v>
       </c>
       <c r="E240" s="1">
-        <v>818.0</v>
+        <v>818</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>492</v>
       </c>
@@ -6445,13 +6473,13 @@
         <v>9</v>
       </c>
       <c r="E241" s="1">
-        <v>823.0</v>
+        <v>823</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>494</v>
       </c>
@@ -6465,13 +6493,13 @@
         <v>9</v>
       </c>
       <c r="E242" s="1">
-        <v>826.0</v>
+        <v>826</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>496</v>
       </c>
@@ -6485,13 +6513,13 @@
         <v>9</v>
       </c>
       <c r="E243" s="1">
-        <v>829.0</v>
+        <v>829</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>498</v>
       </c>
@@ -6505,13 +6533,13 @@
         <v>9</v>
       </c>
       <c r="E244" s="1">
-        <v>832.0</v>
+        <v>832</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>500</v>
       </c>
@@ -6525,13 +6553,13 @@
         <v>9</v>
       </c>
       <c r="E245" s="1">
-        <v>835.0</v>
+        <v>835</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>502</v>
       </c>
@@ -6545,13 +6573,13 @@
         <v>9</v>
       </c>
       <c r="E246" s="1">
-        <v>838.0</v>
+        <v>838</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>504</v>
       </c>
@@ -6562,13 +6590,13 @@
         <v>9</v>
       </c>
       <c r="E247" s="1">
-        <v>839.0</v>
+        <v>839</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>506</v>
       </c>
@@ -6579,13 +6607,13 @@
         <v>9</v>
       </c>
       <c r="E248" s="1">
-        <v>840.0</v>
+        <v>840</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>508</v>
       </c>
@@ -6596,13 +6624,13 @@
         <v>9</v>
       </c>
       <c r="E249" s="1">
-        <v>841.0</v>
+        <v>841</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>510</v>
       </c>
@@ -6613,13 +6641,13 @@
         <v>9</v>
       </c>
       <c r="E250" s="1">
-        <v>842.0</v>
+        <v>842</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>512</v>
       </c>
@@ -6633,13 +6661,13 @@
         <v>9</v>
       </c>
       <c r="E251" s="1">
-        <v>845.0</v>
+        <v>845</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>514</v>
       </c>
@@ -6650,13 +6678,13 @@
         <v>9</v>
       </c>
       <c r="E252" s="1">
-        <v>846.0</v>
+        <v>846</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>516</v>
       </c>
@@ -6670,13 +6698,13 @@
         <v>9</v>
       </c>
       <c r="E253" s="1">
-        <v>851.0</v>
+        <v>851</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>518</v>
       </c>
@@ -6687,13 +6715,13 @@
         <v>9</v>
       </c>
       <c r="E254" s="1">
-        <v>852.0</v>
+        <v>852</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>520</v>
       </c>
@@ -6707,13 +6735,13 @@
         <v>9</v>
       </c>
       <c r="E255" s="1">
-        <v>858.0</v>
+        <v>858</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>522</v>
       </c>
@@ -6727,13 +6755,13 @@
         <v>9</v>
       </c>
       <c r="E256" s="1">
-        <v>861.0</v>
+        <v>861</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>524</v>
       </c>
@@ -6747,13 +6775,13 @@
         <v>9</v>
       </c>
       <c r="E257" s="1">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>526</v>
       </c>
@@ -6764,13 +6792,13 @@
         <v>9</v>
       </c>
       <c r="E258" s="1">
-        <v>867.0</v>
+        <v>867</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>528</v>
       </c>
@@ -6781,13 +6809,13 @@
         <v>9</v>
       </c>
       <c r="E259" s="1">
-        <v>882.0</v>
+        <v>882</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>530</v>
       </c>
@@ -6801,13 +6829,13 @@
         <v>9</v>
       </c>
       <c r="E260" s="1">
-        <v>890.0</v>
+        <v>890</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>531</v>
       </c>
@@ -6818,13 +6846,13 @@
         <v>9</v>
       </c>
       <c r="E261" s="1">
-        <v>891.0</v>
+        <v>891</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>533</v>
       </c>
@@ -6838,13 +6866,13 @@
         <v>9</v>
       </c>
       <c r="E262" s="1">
-        <v>896.0</v>
+        <v>896</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>535</v>
       </c>
@@ -6858,13 +6886,13 @@
         <v>9</v>
       </c>
       <c r="E263" s="1">
-        <v>899.0</v>
+        <v>899</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>537</v>
       </c>
@@ -6875,13 +6903,15 @@
         <v>9</v>
       </c>
       <c r="E264" s="1">
-        <v>903.0</v>
+        <v>903</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>